--- a/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84060BB8-8A79-4A65-92D2-012AC6BBBEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D88FE4-746F-4397-B4C0-3E8BFF5DF9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E16DC669-CC74-42A6-A3BB-73E843B1A98D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B20F42AC-A43C-4F1E-AE5A-5E45629583D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>6,62%</t>
@@ -98,36 +326,6 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>49,11%</t>
   </si>
   <si>
@@ -155,39 +353,6 @@
     <t>60,1%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>33,97%</t>
   </si>
   <si>
@@ -212,123 +377,168 @@
     <t>36,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
     <t>7,4%</t>
   </si>
   <si>
@@ -356,30 +566,6 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
     <t>44,14%</t>
   </si>
   <si>
@@ -407,21 +593,6 @@
     <t>54,44%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
     <t>38,03%</t>
   </si>
   <si>
@@ -449,175 +620,49 @@
     <t>40,14%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>8,33%</t>
@@ -647,30 +692,6 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>41,07%</t>
   </si>
   <si>
@@ -696,27 +717,6 @@
   </si>
   <si>
     <t>48,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
   </si>
   <si>
     <t>42,84%</t>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE96FB9-54C0-4A34-99E3-FCAA1521229D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1AF35C-9D95-4BF2-B902-5C65D95B7896}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1253,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6795</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1268,238 +1268,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7096</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13892</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2950</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2864</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>5814</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>50431</v>
+        <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>32577</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>83008</v>
+        <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>7637</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>555</v>
+        <v>479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>8192</v>
+        <v>479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>34885</v>
+        <v>1688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>13176</v>
+        <v>1114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>48061</v>
+        <v>2803</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,108 +1508,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>56269</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>158967</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4228</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>5928</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="7">
-        <v>10156</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1618,13 +1618,13 @@
         <v>817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1633,13 +1633,13 @@
         <v>819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1648,121 +1648,121 @@
         <v>1635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>19256</v>
+        <v>4228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>13996</v>
+        <v>5928</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>33251</v>
+        <v>10156</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>19256</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>13996</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>33251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>16</v>
@@ -1771,13 +1771,13 @@
         <v>17664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -1786,13 +1786,13 @@
         <v>11157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -1801,13 +1801,13 @@
         <v>28820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1822,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1837,13 +1837,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1852,270 +1852,270 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>4168</v>
+        <v>7637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>11232</v>
+        <v>555</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>15400</v>
+        <v>8192</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>4300</v>
+        <v>2950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2949</v>
+        <v>2864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>7249</v>
+        <v>5814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>24870</v>
+        <v>6795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>26388</v>
+        <v>7096</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>51258</v>
+        <v>13892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
-        <v>1577</v>
+        <v>50431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7">
         <v>44</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>32577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="N19" s="7">
-        <v>1577</v>
+        <v>83008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>21427</v>
+        <v>34885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>15915</v>
+        <v>13176</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="N20" s="7">
-        <v>37342</v>
+        <v>48061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,306 +2124,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>56269</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="N21" s="7">
-        <v>112826</v>
+        <v>158967</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2488</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>636</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>636</v>
+        <v>3208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>6438</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>479</v>
+        <v>3930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>479</v>
+        <v>10368</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>15182</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>24266</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>140</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>39448</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D26" s="7">
-        <v>1688</v>
+        <v>38787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I26" s="7">
-        <v>1114</v>
+        <v>25600</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" s="7">
+        <v>73</v>
+      </c>
+      <c r="N26" s="7">
+        <v>64387</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2803</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,246 +2432,246 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>6438</v>
+        <v>1577</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3930</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1577</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M28" s="7">
-        <v>13</v>
-      </c>
-      <c r="N28" s="7">
-        <v>10368</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>956</v>
+        <v>4300</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2949</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>993</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7">
+        <v>7249</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1949</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>15182</v>
+        <v>4168</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11232</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="7">
-        <v>23</v>
-      </c>
-      <c r="I30" s="7">
-        <v>24266</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15400</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M30" s="7">
-        <v>40</v>
-      </c>
-      <c r="N30" s="7">
-        <v>39448</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D31" s="7">
-        <v>2488</v>
+        <v>24870</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>34</v>
+      </c>
+      <c r="I31" s="7">
+        <v>26388</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>720</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>181</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="N31" s="7">
-        <v>3208</v>
+        <v>51258</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>182</v>
@@ -2686,13 +2686,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D32" s="7">
-        <v>38787</v>
+        <v>21427</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>185</v>
@@ -2704,10 +2704,10 @@
         <v>187</v>
       </c>
       <c r="H32" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I32" s="7">
-        <v>25600</v>
+        <v>15915</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>188</v>
@@ -2719,10 +2719,10 @@
         <v>190</v>
       </c>
       <c r="M32" s="7">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N32" s="7">
-        <v>64387</v>
+        <v>37342</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>191</v>
@@ -2740,49 +2740,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,10 +2793,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7">
-        <v>22265</v>
+        <v>11702</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>194</v>
@@ -2808,40 +2808,40 @@
         <v>196</v>
       </c>
       <c r="H34" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>28187</v>
+        <v>1275</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>197</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="7">
+        <v>14</v>
+      </c>
+      <c r="N34" s="7">
+        <v>12977</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M34" s="7">
-        <v>64</v>
-      </c>
-      <c r="N34" s="7">
-        <v>50452</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>11</v>
@@ -2850,13 +2850,13 @@
         <v>9023</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -2865,13 +2865,13 @@
         <v>7624</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
@@ -2880,106 +2880,106 @@
         <v>16647</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="D36" s="7">
-        <v>109739</v>
+        <v>22265</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>37</v>
+      </c>
+      <c r="I36" s="7">
+        <v>28187</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H36" s="7">
-        <v>123</v>
-      </c>
-      <c r="I36" s="7">
-        <v>97705</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>64</v>
+      </c>
+      <c r="N36" s="7">
+        <v>50452</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="7">
-        <v>252</v>
-      </c>
-      <c r="N36" s="7">
-        <v>207444</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D37" s="7">
-        <v>11702</v>
+        <v>109739</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>123</v>
+      </c>
+      <c r="I37" s="7">
+        <v>97705</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1275</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M37" s="7">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="N37" s="7">
-        <v>12977</v>
+        <v>207444</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>224</v>
@@ -2994,7 +2994,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>128</v>
@@ -3054,13 +3054,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H39" s="7">
         <v>269</v>
@@ -3069,13 +3069,13 @@
         <v>201754</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -3084,13 +3084,13 @@
         <v>468934</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D88FE4-746F-4397-B4C0-3E8BFF5DF9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82687D6A-5883-4232-81CD-54A2AD322519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B20F42AC-A43C-4F1E-AE5A-5E45629583D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C30BA258-7F52-497E-B0B4-2C7C8DE00000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="239">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -68,81 +68,180 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
@@ -152,238 +251,241 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>3,08%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,62%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -398,112 +500,124 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>8,52%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>10,14%</t>
+    <t>8,9%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -512,238 +626,133 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -754,7 +763,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -850,39 +859,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -934,7 +943,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1045,13 +1054,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1060,6 +1062,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1124,19 +1133,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1AF35C-9D95-4BF2-B902-5C65D95B7896}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895C86F4-3B18-45EA-B283-E90EAE9324CF}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1253,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1688</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1268,40 +1297,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2803</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1310,49 +1339,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>479</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1361,13 +1390,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1376,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1391,19 +1420,19 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1412,94 +1441,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1688</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1114</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2803</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,106 +1590,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>17664</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11157</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="7">
         <v>35</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>28820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>817</v>
+        <v>19256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>819</v>
+        <v>13996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N11" s="7">
-        <v>1635</v>
+        <v>33251</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1669,13 +1698,13 @@
         <v>4228</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1684,13 +1713,13 @@
         <v>5928</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -1699,112 +1728,112 @@
         <v>10156</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>19256</v>
+        <v>817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>13996</v>
+        <v>819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>33251</v>
+        <v>1635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>17664</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="7">
-        <v>11157</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>28820</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>70</v>
@@ -1869,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>7637</v>
+        <v>34885</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>72</v>
@@ -1884,91 +1913,91 @@
         <v>74</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>555</v>
+        <v>13176</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>8192</v>
+        <v>48061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>2950</v>
+        <v>50431</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>2864</v>
+        <v>32577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="N17" s="7">
-        <v>5814</v>
+        <v>83008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -1977,13 +2006,13 @@
         <v>6795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -1992,13 +2021,13 @@
         <v>7096</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -2007,115 +2036,115 @@
         <v>13892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>50431</v>
+        <v>2950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>32577</v>
+        <v>2864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>83008</v>
+        <v>5814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>34885</v>
+        <v>7637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>13176</v>
+        <v>555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>48061</v>
+        <v>8192</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,112 +2200,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>2488</v>
+        <v>38787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>720</v>
+        <v>25600</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>3208</v>
+        <v>64387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>956</v>
+        <v>15182</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I23" s="7">
-        <v>993</v>
+        <v>24266</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N23" s="7">
-        <v>1949</v>
+        <v>39448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>7</v>
@@ -2285,13 +2314,13 @@
         <v>6438</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2300,13 +2329,13 @@
         <v>3930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2315,115 +2344,115 @@
         <v>10368</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>15182</v>
+        <v>956</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>24266</v>
+        <v>993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>39448</v>
+        <v>1949</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>38787</v>
+        <v>2488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>25600</v>
+        <v>720</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>64387</v>
+        <v>3208</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,112 +2508,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D28" s="7">
-        <v>1577</v>
+        <v>21427</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>15915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="N28" s="7">
-        <v>1577</v>
+        <v>37342</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>4300</v>
+        <v>24870</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I29" s="7">
-        <v>2949</v>
+        <v>26388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="N29" s="7">
-        <v>7249</v>
+        <v>51258</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -2593,13 +2622,13 @@
         <v>4168</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -2608,13 +2637,13 @@
         <v>11232</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -2623,115 +2652,115 @@
         <v>15400</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>24870</v>
+        <v>4300</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H31" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>26388</v>
+        <v>2949</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="N31" s="7">
-        <v>51258</v>
+        <v>7249</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>21427</v>
+        <v>1577</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>15915</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>37342</v>
+        <v>1577</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,106 +2822,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D34" s="7">
-        <v>11702</v>
+        <v>114451</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="I34" s="7">
-        <v>1275</v>
+        <v>66962</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="N34" s="7">
-        <v>12977</v>
+        <v>181414</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="D35" s="7">
-        <v>9023</v>
+        <v>109739</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="I35" s="7">
-        <v>7624</v>
+        <v>97705</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="N35" s="7">
-        <v>16647</v>
+        <v>207444</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
         <v>27</v>
@@ -2901,13 +2930,13 @@
         <v>22265</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -2916,13 +2945,13 @@
         <v>28187</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -2931,115 +2960,115 @@
         <v>50452</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>109739</v>
+        <v>9023</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H37" s="7">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>97705</v>
+        <v>7624</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>207444</v>
+        <v>16647</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D38" s="7">
-        <v>114451</v>
+        <v>11702</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>66962</v>
+        <v>1275</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M38" s="7">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="N38" s="7">
-        <v>181414</v>
+        <v>12977</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,6 +3120,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82687D6A-5883-4232-81CD-54A2AD322519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56495773-DF98-4E0D-8806-650B2EBB8BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C30BA258-7F52-497E-B0B4-2C7C8DE00000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FA7F4E2-7148-4976-B58B-F9208F5D10E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -74,7 +74,7 @@
     <t>72,63%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>15,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>71,54%</t>
   </si>
   <si>
-    <t>28,32%</t>
+    <t>26,57%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -107,649 +107,643 @@
     <t>12,22%</t>
   </si>
   <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1164,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895C86F4-3B18-45EA-B283-E90EAE9324CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C60C396-E5DB-441A-A58B-0D4FF92DAA30}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2042,7 +2036,7 @@
         <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,13 +2051,13 @@
         <v>2950</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2072,13 +2066,13 @@
         <v>2864</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2087,13 +2081,13 @@
         <v>5814</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,10 +2102,10 @@
         <v>7637</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>92</v>
@@ -2123,13 +2117,13 @@
         <v>555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2138,13 +2132,13 @@
         <v>8192</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2194,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2212,13 +2206,13 @@
         <v>38787</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -2227,13 +2221,13 @@
         <v>25600</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -2242,13 +2236,13 @@
         <v>64387</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2257,13 @@
         <v>15182</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -2278,13 +2272,13 @@
         <v>24266</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -2293,13 +2287,13 @@
         <v>39448</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,10 +2311,10 @@
         <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2329,13 +2323,13 @@
         <v>3930</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2344,13 +2338,13 @@
         <v>10368</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2359,13 @@
         <v>956</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2380,13 +2374,13 @@
         <v>993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2395,13 +2389,13 @@
         <v>1949</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2410,13 @@
         <v>2488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2431,13 +2425,13 @@
         <v>720</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2446,13 +2440,13 @@
         <v>3208</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,7 +2502,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2520,13 +2514,13 @@
         <v>21427</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -2535,13 +2529,13 @@
         <v>15915</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -2550,13 +2544,13 @@
         <v>37342</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2565,13 @@
         <v>24870</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -2586,13 +2580,13 @@
         <v>26388</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -2601,13 +2595,13 @@
         <v>51258</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2616,13 @@
         <v>4168</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -2637,13 +2631,13 @@
         <v>11232</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -2652,13 +2646,13 @@
         <v>15400</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2667,13 @@
         <v>4300</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -2688,13 +2682,13 @@
         <v>2949</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -2703,13 +2697,13 @@
         <v>7249</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2718,13 @@
         <v>1577</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2745,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2754,13 +2748,13 @@
         <v>1577</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2822,13 @@
         <v>114451</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>98</v>
@@ -2843,13 +2837,13 @@
         <v>66962</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>226</v>
@@ -2858,13 +2852,13 @@
         <v>181414</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2873,13 @@
         <v>109739</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>123</v>
@@ -2894,13 +2888,13 @@
         <v>97705</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M35" s="7">
         <v>252</v>
@@ -2909,13 +2903,13 @@
         <v>207444</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2924,13 @@
         <v>22265</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -2945,13 +2939,13 @@
         <v>28187</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -2960,13 +2954,13 @@
         <v>50452</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2975,13 @@
         <v>9023</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -2996,13 +2990,13 @@
         <v>7624</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -3011,13 +3005,13 @@
         <v>16647</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3026,13 @@
         <v>11702</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3047,13 +3041,13 @@
         <v>1275</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -3062,13 +3056,13 @@
         <v>12977</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3118,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56495773-DF98-4E0D-8806-650B2EBB8BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{543AC63A-F35E-49FD-ACDA-C770C55CFCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FA7F4E2-7148-4976-B58B-F9208F5D10E5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2DA0572F-0FEE-4222-827E-8B05CF4C48CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
-  <si>
-    <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="210">
+  <si>
+    <t>Menores según frecuencia de tener suficiente tiempo para si mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,685 +65,604 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1158,8 +1077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C60C396-E5DB-441A-A58B-0D4FF92DAA30}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432B5DDC-DE65-416A-9318-5E704482BF68}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1276,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>1688</v>
+        <v>13596</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1291,10 +1210,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>1114</v>
+        <v>26124</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1303,181 +1222,181 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>2803</v>
+        <v>39720</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>14276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>479</v>
+        <v>13867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>479</v>
+        <v>28143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>636</v>
+        <v>2746</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>6074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>636</v>
+        <v>8821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1486,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1501,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1516,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,306 +1450,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>17664</v>
+        <v>32481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>11157</v>
+        <v>50962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>28820</v>
+        <v>83443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>19256</v>
+        <v>15030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
         <v>46</v>
       </c>
-      <c r="H11" s="7">
-        <v>21</v>
-      </c>
       <c r="I11" s="7">
-        <v>13996</v>
+        <v>34863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="N11" s="7">
-        <v>33251</v>
+        <v>49893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4228</v>
+        <v>4968</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>5928</v>
+        <v>12495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>10156</v>
+        <v>17463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>819</v>
+        <v>3861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1635</v>
+        <v>3861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,306 +1758,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>34885</v>
+        <v>21208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>13176</v>
+        <v>35216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N16" s="7">
-        <v>48061</v>
+        <v>56425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>50431</v>
+        <v>20819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>32577</v>
+        <v>21586</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N17" s="7">
-        <v>83008</v>
+        <v>42405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>6795</v>
+        <v>29318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>7096</v>
+        <v>8176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>13892</v>
+        <v>37494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2950</v>
+        <v>416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2864</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>5814</v>
+        <v>416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>7637</v>
+        <v>422</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="7">
-        <v>555</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>9</v>
-      </c>
       <c r="N20" s="7">
-        <v>8192</v>
+        <v>422</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,306 +2066,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>56269</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>158967</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>38787</v>
+        <v>23729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>25600</v>
+        <v>28029</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="N22" s="7">
-        <v>64387</v>
+        <v>51758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7">
-        <v>15182</v>
+        <v>25616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>24266</v>
+        <v>20097</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>39448</v>
+        <v>45713</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3081</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="7">
         <v>7</v>
       </c>
-      <c r="D24" s="7">
-        <v>6438</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
       <c r="I24" s="7">
-        <v>3930</v>
+        <v>5873</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>10368</v>
+        <v>8953</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>956</v>
+        <v>1057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>993</v>
+        <v>1623</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>1949</v>
+        <v>2680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>2488</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>3208</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,306 +2374,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>55621</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109104</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D28" s="7">
-        <v>21427</v>
+        <v>91014</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I28" s="7">
-        <v>15915</v>
+        <v>140331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="N28" s="7">
-        <v>37342</v>
+        <v>231345</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D29" s="7">
-        <v>24870</v>
+        <v>75741</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H29" s="7">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I29" s="7">
-        <v>26388</v>
+        <v>90412</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="N29" s="7">
-        <v>51258</v>
+        <v>166154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>4168</v>
+        <v>40113</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I30" s="7">
-        <v>11232</v>
+        <v>32617</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N30" s="7">
-        <v>15400</v>
+        <v>72730</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>4300</v>
+        <v>2027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I31" s="7">
-        <v>2949</v>
+        <v>7440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N31" s="7">
-        <v>7249</v>
+        <v>9468</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>1577</v>
+        <v>2172</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,370 +2682,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>271397</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
-        <v>145</v>
+        <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>112826</v>
+        <v>481869</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>128</v>
-      </c>
-      <c r="D34" s="7">
-        <v>114451</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H34" s="7">
-        <v>98</v>
-      </c>
-      <c r="I34" s="7">
-        <v>66962</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M34" s="7">
-        <v>226</v>
-      </c>
-      <c r="N34" s="7">
-        <v>181414</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>129</v>
-      </c>
-      <c r="D35" s="7">
-        <v>109739</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H35" s="7">
-        <v>123</v>
-      </c>
-      <c r="I35" s="7">
-        <v>97705</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" s="7" t="s">
+      <c r="A34" t="s">
         <v>209</v>
       </c>
-      <c r="M35" s="7">
-        <v>252</v>
-      </c>
-      <c r="N35" s="7">
-        <v>207444</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7">
-        <v>27</v>
-      </c>
-      <c r="D36" s="7">
-        <v>22265</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="7">
-        <v>37</v>
-      </c>
-      <c r="I36" s="7">
-        <v>28187</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M36" s="7">
-        <v>64</v>
-      </c>
-      <c r="N36" s="7">
-        <v>50452</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="7">
-        <v>11</v>
-      </c>
-      <c r="D37" s="7">
-        <v>9023</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H37" s="7">
-        <v>9</v>
-      </c>
-      <c r="I37" s="7">
-        <v>7624</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M37" s="7">
-        <v>20</v>
-      </c>
-      <c r="N37" s="7">
-        <v>16647</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="7">
-        <v>12</v>
-      </c>
-      <c r="D38" s="7">
-        <v>11702</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1275</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M38" s="7">
-        <v>14</v>
-      </c>
-      <c r="N38" s="7">
-        <v>12977</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>307</v>
-      </c>
-      <c r="D39" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="7">
-        <v>269</v>
-      </c>
-      <c r="I39" s="7">
-        <v>201754</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="7">
-        <v>576</v>
-      </c>
-      <c r="N39" s="7">
-        <v>468934</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>236</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
